--- a/members_report.xlsx
+++ b/members_report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>risk</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,7 +53,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>홍길동</t>
+    <t>Arturo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>John</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diaz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoga</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sutton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lawren</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benny</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edgar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raul</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -134,15 +206,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,6 +221,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,36 +532,39 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.25" style="6" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -498,7 +576,7 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>90</v>
       </c>
       <c r="F2" s="1">
@@ -509,8 +587,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
+      <c r="A3" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -521,7 +599,7 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>85</v>
       </c>
       <c r="F3" s="1">
@@ -532,8 +610,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
+      <c r="A4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -544,7 +622,7 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>95</v>
       </c>
       <c r="F4" s="1">
@@ -555,8 +633,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
+      <c r="A5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -567,7 +645,7 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>98</v>
       </c>
       <c r="F5" s="1">
@@ -578,8 +656,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
+      <c r="A6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -590,7 +668,7 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>60</v>
       </c>
       <c r="F6" s="1">
@@ -601,8 +679,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
+      <c r="A7" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -613,7 +691,7 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>50</v>
       </c>
       <c r="F7" s="1">
@@ -624,8 +702,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
+      <c r="A8" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
@@ -636,7 +714,7 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>40</v>
       </c>
       <c r="F8" s="1">
@@ -647,8 +725,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
+      <c r="A9" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -659,7 +737,7 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>80</v>
       </c>
       <c r="F9" s="1">
@@ -670,8 +748,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
+      <c r="A10" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -682,7 +760,7 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>90</v>
       </c>
       <c r="F10" s="1">
@@ -693,8 +771,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
+      <c r="A11" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -705,7 +783,7 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>30</v>
       </c>
       <c r="F11" s="1">
@@ -716,8 +794,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
+      <c r="A12" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
@@ -728,7 +806,7 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>100</v>
       </c>
       <c r="F12" s="1">
@@ -739,8 +817,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
+      <c r="A13" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
@@ -751,7 +829,7 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>70</v>
       </c>
       <c r="F13" s="1">
@@ -762,8 +840,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
+      <c r="A14" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2</v>
@@ -774,7 +852,7 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>100</v>
       </c>
       <c r="F14" s="1">
@@ -785,8 +863,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
+      <c r="A15" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
@@ -797,7 +875,7 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>80</v>
       </c>
       <c r="F15" s="1">
@@ -808,8 +886,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
+      <c r="A16" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>2</v>
@@ -820,7 +898,7 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>100</v>
       </c>
       <c r="F16" s="1">
@@ -831,8 +909,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
+      <c r="A17" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2</v>
@@ -843,7 +921,7 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>100</v>
       </c>
       <c r="F17" s="1">
@@ -854,8 +932,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>10</v>
+      <c r="A18" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -866,7 +944,7 @@
       <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>110</v>
       </c>
       <c r="F18" s="1">
@@ -877,8 +955,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>10</v>
+      <c r="A19" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
@@ -889,7 +967,7 @@
       <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>115</v>
       </c>
       <c r="F19" s="1">
@@ -900,8 +978,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
+      <c r="A20" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>9</v>
@@ -912,7 +990,7 @@
       <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>120</v>
       </c>
       <c r="F20" s="1">
@@ -925,6 +1003,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
